--- a/hed/compare_qst.xlsx
+++ b/hed/compare_qst.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CrazY\Documents\GitHub\nnsvs-custom-scripts\hed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647C6E28-F79E-4101-9714-939076772578}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FC7B78-B9DD-4533-A3E6-85BC0936C915}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="4440" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="4440" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="352">
   <si>
     <t>p1</t>
   </si>
@@ -1721,6 +1721,14 @@
   </si>
   <si>
     <t>the number of syllables in this song / the number of measures in this song</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jp_qst003_nnsvs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>crazy_mono_006</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2550,7 +2558,27 @@
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -2592,10 +2620,10 @@
     <tableColumn id="3" xr3:uid="{656428F4-FD5E-4035-826D-2C425336929A}" name="オクターブ"/>
     <tableColumn id="4" xr3:uid="{DF3E6C80-44B8-41BF-832D-2126C870636E}" name="e2"/>
     <tableColumn id="5" xr3:uid="{311F0AC0-6067-4889-8836-40C835B6134D}" name="e3"/>
-    <tableColumn id="7" xr3:uid="{AECA7492-100F-4A3F-94E3-B6C95B24C98B}" name="e2+e3" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{AECA7492-100F-4A3F-94E3-B6C95B24C98B}" name="e2+e3" dataDxfId="4">
       <calculatedColumnFormula>テーブル1[[#This Row],[e2]]+テーブル1[[#This Row],[e3]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{8688ABD7-9A00-4C99-8AB7-480BAE6797D7}" name="mod(e2+e3)" dataDxfId="1">
+    <tableColumn id="8" xr3:uid="{8688ABD7-9A00-4C99-8AB7-480BAE6797D7}" name="mod(e2+e3)" dataDxfId="3">
       <calculatedColumnFormula>MOD(テーブル1[[#This Row],[e2+e3]], 12)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{97935870-B3E4-4257-8D24-C819CE2BB43B}" name="曲"/>
@@ -2867,23 +2895,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I123"/>
+  <dimension ref="A1:K123"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I46" sqref="I44:I46"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69:F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="7.125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="3.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="65.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="95.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="2" max="3" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="3.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="65.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="95.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>311</v>
       </c>
@@ -2896,8 +2926,14 @@
       <c r="E1" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="19.5" thickBot="1">
+      <c r="F1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="19.5" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>314</v>
       </c>
@@ -2917,8 +2953,16 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="19.5" thickTop="1">
+      <c r="F2" s="1">
+        <f t="shared" ref="F2:G2" si="1">SUM(F3:F122)</f>
+        <v>45</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="19.5" thickTop="1">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2934,18 +2978,24 @@
       <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:11">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -2959,20 +3009,22 @@
         <v>0</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:11">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -2988,20 +3040,26 @@
       <c r="E5" s="6">
         <v>1</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="I5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="J5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="K5" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:11">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -3017,20 +3075,26 @@
       <c r="E6" s="6">
         <v>1</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="I6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="J6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="K6" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:11">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -3046,20 +3110,26 @@
       <c r="E7" s="6">
         <v>1</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="I7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="J7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="K7" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:11">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -3073,20 +3143,22 @@
         <v>0</v>
       </c>
       <c r="E8" s="6"/>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="I8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="J8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="K8" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:11">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -3100,20 +3172,22 @@
         <v>0</v>
       </c>
       <c r="E9" s="6"/>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="I9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="J9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="K9" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:11">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
@@ -3127,20 +3201,22 @@
         <v>0</v>
       </c>
       <c r="E10" s="6"/>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="I10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="J10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="K10" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:11">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -3154,20 +3230,22 @@
         <v>0</v>
       </c>
       <c r="E11" s="6"/>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="I11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="J11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="K11" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:11">
       <c r="A12" s="6" t="s">
         <v>40</v>
       </c>
@@ -3181,20 +3259,22 @@
         <v>0</v>
       </c>
       <c r="E12" s="6"/>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="I12" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="J12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="K12" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:11">
       <c r="A13" s="6" t="s">
         <v>44</v>
       </c>
@@ -3208,20 +3288,22 @@
         <v>0</v>
       </c>
       <c r="E13" s="6"/>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="I13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="J13" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="K13" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:11">
       <c r="A14" s="6" t="s">
         <v>48</v>
       </c>
@@ -3237,20 +3319,26 @@
       <c r="E14" s="6">
         <v>1</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="I14" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="J14" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="K14" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:11">
       <c r="A15" s="6" t="s">
         <v>52</v>
       </c>
@@ -3266,20 +3354,26 @@
       <c r="E15" s="6">
         <v>1</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="I15" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="J15" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="K15" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:11">
       <c r="A16" s="6" t="s">
         <v>57</v>
       </c>
@@ -3295,20 +3389,24 @@
       <c r="E16" s="6">
         <v>1</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="6">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="I16" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="J16" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="K16" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:11">
       <c r="A17" s="6" t="s">
         <v>62</v>
       </c>
@@ -3324,20 +3422,26 @@
       <c r="E17" s="6">
         <v>1</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="H17" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="I17" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="J17" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="K17" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="19.5" thickBot="1">
+    <row r="18" spans="1:11" ht="19.5" thickBot="1">
       <c r="A18" s="16" t="s">
         <v>67</v>
       </c>
@@ -3351,18 +3455,20 @@
         <v>0</v>
       </c>
       <c r="E18" s="16"/>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="19" t="s">
+      <c r="I18" s="18"/>
+      <c r="J18" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="I18" s="19" t="s">
+      <c r="K18" s="19" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="19.5" thickTop="1">
+    <row r="19" spans="1:11" ht="19.5" thickTop="1">
       <c r="A19" s="2" t="s">
         <v>71</v>
       </c>
@@ -3378,16 +3484,22 @@
       <c r="E19" s="2">
         <v>1</v>
       </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="5" t="s">
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="K19" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:11">
       <c r="A20" s="6" t="s">
         <v>74</v>
       </c>
@@ -3403,16 +3515,22 @@
       <c r="E20" s="6">
         <v>1</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="9" t="s">
+      <c r="F20" s="6">
+        <v>1</v>
+      </c>
+      <c r="G20" s="6">
+        <v>1</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="K20" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:11">
       <c r="A21" s="6" t="s">
         <v>77</v>
       </c>
@@ -3428,16 +3546,22 @@
       <c r="E21" s="6">
         <v>1</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9" t="s">
+      <c r="F21" s="6">
+        <v>1</v>
+      </c>
+      <c r="G21" s="6">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="K21" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:11">
       <c r="A22" s="6" t="s">
         <v>80</v>
       </c>
@@ -3451,16 +3575,20 @@
         <v>0</v>
       </c>
       <c r="E22" s="6"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="9" t="s">
+      <c r="F22" s="6"/>
+      <c r="G22" s="6">
+        <v>1</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="K22" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:11">
       <c r="A23" s="22" t="s">
         <v>83</v>
       </c>
@@ -3474,16 +3602,20 @@
         <v>0</v>
       </c>
       <c r="E23" s="22"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="25" t="s">
+      <c r="F23" s="22"/>
+      <c r="G23" s="22">
+        <v>1</v>
+      </c>
+      <c r="H23" s="23"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="I23" s="25" t="s">
+      <c r="K23" s="25" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:11">
       <c r="A24" s="26" t="s">
         <v>86</v>
       </c>
@@ -3499,16 +3631,22 @@
       <c r="E24" s="26">
         <v>1</v>
       </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="29" t="s">
+      <c r="F24" s="26">
+        <v>1</v>
+      </c>
+      <c r="G24" s="26">
+        <v>1</v>
+      </c>
+      <c r="H24" s="27"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="I24" s="29" t="s">
+      <c r="K24" s="29" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:11">
       <c r="A25" s="6" t="s">
         <v>89</v>
       </c>
@@ -3524,16 +3662,22 @@
       <c r="E25" s="6">
         <v>1</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="9" t="s">
+      <c r="F25" s="6">
+        <v>1</v>
+      </c>
+      <c r="G25" s="6">
+        <v>1</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="K25" s="9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:11">
       <c r="A26" s="6" t="s">
         <v>92</v>
       </c>
@@ -3549,16 +3693,22 @@
       <c r="E26" s="6">
         <v>1</v>
       </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="9" t="s">
+      <c r="F26" s="6">
+        <v>1</v>
+      </c>
+      <c r="G26" s="6">
+        <v>1</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="K26" s="9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:11">
       <c r="A27" s="6" t="s">
         <v>95</v>
       </c>
@@ -3572,16 +3722,20 @@
         <v>0</v>
       </c>
       <c r="E27" s="6"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="9" t="s">
+      <c r="F27" s="6"/>
+      <c r="G27" s="6">
+        <v>1</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="I27" s="9" t="s">
+      <c r="K27" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:11">
       <c r="A28" s="22" t="s">
         <v>98</v>
       </c>
@@ -3595,16 +3749,20 @@
         <v>0</v>
       </c>
       <c r="E28" s="22"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="25" t="s">
+      <c r="F28" s="22"/>
+      <c r="G28" s="22">
+        <v>1</v>
+      </c>
+      <c r="H28" s="23"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="I28" s="25" t="s">
+      <c r="K28" s="25" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:11">
       <c r="A29" s="30" t="s">
         <v>101</v>
       </c>
@@ -3620,16 +3778,22 @@
       <c r="E29" s="30">
         <v>1</v>
       </c>
-      <c r="F29" s="31"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="32" t="s">
+      <c r="F29" s="30">
+        <v>1</v>
+      </c>
+      <c r="G29" s="30">
+        <v>1</v>
+      </c>
+      <c r="H29" s="31"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="I29" s="32" t="s">
+      <c r="K29" s="32" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:11">
       <c r="A30" s="6" t="s">
         <v>104</v>
       </c>
@@ -3645,16 +3809,22 @@
       <c r="E30" s="6">
         <v>1</v>
       </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="9" t="s">
+      <c r="F30" s="6">
+        <v>1</v>
+      </c>
+      <c r="G30" s="6">
+        <v>1</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="I30" s="9" t="s">
+      <c r="K30" s="9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:11">
       <c r="A31" s="6" t="s">
         <v>107</v>
       </c>
@@ -3670,16 +3840,22 @@
       <c r="E31" s="6">
         <v>1</v>
       </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="9" t="s">
+      <c r="F31" s="6">
+        <v>1</v>
+      </c>
+      <c r="G31" s="6">
+        <v>1</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="I31" s="9" t="s">
+      <c r="K31" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:11">
       <c r="A32" s="6" t="s">
         <v>110</v>
       </c>
@@ -3693,16 +3869,20 @@
         <v>0</v>
       </c>
       <c r="E32" s="6"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="9" t="s">
+      <c r="F32" s="6"/>
+      <c r="G32" s="6">
+        <v>1</v>
+      </c>
+      <c r="H32" s="7"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="I32" s="9" t="s">
+      <c r="K32" s="9" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="19.5" thickBot="1">
+    <row r="33" spans="1:11" ht="19.5" thickBot="1">
       <c r="A33" s="16" t="s">
         <v>113</v>
       </c>
@@ -3716,16 +3896,20 @@
         <v>0</v>
       </c>
       <c r="E33" s="16"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="19" t="s">
+      <c r="F33" s="16"/>
+      <c r="G33" s="16">
+        <v>1</v>
+      </c>
+      <c r="H33" s="17"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="I33" s="19" t="s">
+      <c r="K33" s="19" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="19.5" thickTop="1">
+    <row r="34" spans="1:11" ht="19.5" thickTop="1">
       <c r="A34" s="2" t="s">
         <v>116</v>
       </c>
@@ -3741,14 +3925,20 @@
       <c r="E34" s="2">
         <v>1</v>
       </c>
-      <c r="F34" s="20"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5" t="s">
+      <c r="F34" s="2">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:11">
       <c r="A35" s="6" t="s">
         <v>118</v>
       </c>
@@ -3764,14 +3954,20 @@
       <c r="E35" s="6">
         <v>1</v>
       </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9" t="s">
+      <c r="F35" s="6">
+        <v>1</v>
+      </c>
+      <c r="G35" s="6">
+        <v>1</v>
+      </c>
+      <c r="H35" s="7"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:11">
       <c r="A36" s="6" t="s">
         <v>120</v>
       </c>
@@ -3787,14 +3983,20 @@
       <c r="E36" s="6">
         <v>1</v>
       </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9" t="s">
+      <c r="F36" s="6">
+        <v>1</v>
+      </c>
+      <c r="G36" s="6">
+        <v>1</v>
+      </c>
+      <c r="H36" s="7"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:11">
       <c r="A37" s="6" t="s">
         <v>122</v>
       </c>
@@ -3808,14 +4010,16 @@
         <v>0</v>
       </c>
       <c r="E37" s="6"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9" t="s">
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:11">
       <c r="A38" s="6" t="s">
         <v>124</v>
       </c>
@@ -3829,14 +4033,16 @@
         <v>0</v>
       </c>
       <c r="E38" s="6"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9" t="s">
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:11">
       <c r="A39" s="6" t="s">
         <v>126</v>
       </c>
@@ -3852,14 +4058,20 @@
       <c r="E39" s="6">
         <v>1</v>
       </c>
-      <c r="F39" s="7"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9" t="s">
+      <c r="F39" s="6">
+        <v>1</v>
+      </c>
+      <c r="G39" s="6">
+        <v>1</v>
+      </c>
+      <c r="H39" s="7"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:11">
       <c r="A40" s="6" t="s">
         <v>128</v>
       </c>
@@ -3875,14 +4087,20 @@
       <c r="E40" s="6">
         <v>1</v>
       </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9" t="s">
+      <c r="F40" s="6">
+        <v>1</v>
+      </c>
+      <c r="G40" s="6">
+        <v>1</v>
+      </c>
+      <c r="H40" s="7"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:11">
       <c r="A41" s="6" t="s">
         <v>130</v>
       </c>
@@ -3898,14 +4116,20 @@
       <c r="E41" s="6">
         <v>1</v>
       </c>
-      <c r="F41" s="7"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9" t="s">
+      <c r="F41" s="6">
+        <v>1</v>
+      </c>
+      <c r="G41" s="6">
+        <v>1</v>
+      </c>
+      <c r="H41" s="7"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:11">
       <c r="A42" s="6" t="s">
         <v>132</v>
       </c>
@@ -3919,14 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E42" s="6"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9" t="s">
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:11">
       <c r="A43" s="33" t="s">
         <v>133</v>
       </c>
@@ -3934,14 +4160,16 @@
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36" t="s">
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:11">
       <c r="A44" s="37" t="s">
         <v>135</v>
       </c>
@@ -3957,16 +4185,22 @@
       <c r="E44" s="37">
         <v>1</v>
       </c>
-      <c r="F44" s="38"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="39" t="s">
+      <c r="F44" s="37">
+        <v>1</v>
+      </c>
+      <c r="G44" s="37">
+        <v>1</v>
+      </c>
+      <c r="H44" s="38"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="I44" s="32" t="s">
+      <c r="K44" s="32" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:11">
       <c r="A45" s="40" t="s">
         <v>138</v>
       </c>
@@ -3982,16 +4216,22 @@
       <c r="E45" s="40">
         <v>1</v>
       </c>
-      <c r="F45" s="41"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="42" t="s">
+      <c r="F45" s="40">
+        <v>1</v>
+      </c>
+      <c r="G45" s="40">
+        <v>1</v>
+      </c>
+      <c r="H45" s="41"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="I45" s="9" t="s">
+      <c r="K45" s="9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:11">
       <c r="A46" s="40" t="s">
         <v>141</v>
       </c>
@@ -4007,16 +4247,22 @@
       <c r="E46" s="40">
         <v>1</v>
       </c>
-      <c r="F46" s="41"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="42" t="s">
+      <c r="F46" s="40">
+        <v>1</v>
+      </c>
+      <c r="G46" s="40">
+        <v>1</v>
+      </c>
+      <c r="H46" s="41"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="I46" s="9" t="s">
+      <c r="K46" s="9" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:11">
       <c r="A47" s="40" t="s">
         <v>143</v>
       </c>
@@ -4030,16 +4276,18 @@
         <v>0</v>
       </c>
       <c r="E47" s="40"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="9" t="s">
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="I47" s="9" t="s">
+      <c r="K47" s="9" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:11">
       <c r="A48" s="40" t="s">
         <v>146</v>
       </c>
@@ -4053,16 +4301,18 @@
         <v>0</v>
       </c>
       <c r="E48" s="40"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="9" t="s">
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="I48" s="9" t="s">
+      <c r="K48" s="9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:11">
       <c r="A49" s="40" t="s">
         <v>149</v>
       </c>
@@ -4078,16 +4328,22 @@
       <c r="E49" s="40">
         <v>1</v>
       </c>
-      <c r="F49" s="41"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="9" t="s">
+      <c r="F49" s="40">
+        <v>1</v>
+      </c>
+      <c r="G49" s="40">
+        <v>1</v>
+      </c>
+      <c r="H49" s="41"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="I49" s="9" t="s">
+      <c r="K49" s="9" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:11">
       <c r="A50" s="40" t="s">
         <v>152</v>
       </c>
@@ -4103,16 +4359,22 @@
       <c r="E50" s="40">
         <v>1</v>
       </c>
-      <c r="F50" s="41"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="9" t="s">
+      <c r="F50" s="40">
+        <v>1</v>
+      </c>
+      <c r="G50" s="40">
+        <v>1</v>
+      </c>
+      <c r="H50" s="41"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="I50" s="9" t="s">
+      <c r="K50" s="9" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:11">
       <c r="A51" s="40" t="s">
         <v>155</v>
       </c>
@@ -4128,16 +4390,22 @@
       <c r="E51" s="40">
         <v>1</v>
       </c>
-      <c r="F51" s="41"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="9" t="s">
+      <c r="F51" s="40">
+        <v>1</v>
+      </c>
+      <c r="G51" s="40">
+        <v>1</v>
+      </c>
+      <c r="H51" s="41"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="I51" s="9" t="s">
+      <c r="K51" s="9" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:11">
       <c r="A52" s="40" t="s">
         <v>158</v>
       </c>
@@ -4151,16 +4419,18 @@
         <v>0</v>
       </c>
       <c r="E52" s="40"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="9" t="s">
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="I52" s="9" t="s">
+      <c r="K52" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:11">
       <c r="A53" s="40" t="s">
         <v>160</v>
       </c>
@@ -4174,16 +4444,18 @@
         <v>0</v>
       </c>
       <c r="E53" s="40"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="9" t="s">
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="I53" s="9" t="s">
+      <c r="K53" s="9" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:11">
       <c r="A54" s="40" t="s">
         <v>163</v>
       </c>
@@ -4197,14 +4469,16 @@
         <v>0</v>
       </c>
       <c r="E54" s="40"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9" t="s">
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:11">
       <c r="A55" s="40" t="s">
         <v>165</v>
       </c>
@@ -4218,16 +4492,18 @@
         <v>0</v>
       </c>
       <c r="E55" s="40"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="9" t="s">
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="I55" s="9" t="s">
+      <c r="K55" s="9" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:11">
       <c r="A56" s="40" t="s">
         <v>168</v>
       </c>
@@ -4241,14 +4517,16 @@
         <v>0</v>
       </c>
       <c r="E56" s="40"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9" t="s">
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:11">
       <c r="A57" s="40" t="s">
         <v>170</v>
       </c>
@@ -4262,16 +4540,18 @@
         <v>0</v>
       </c>
       <c r="E57" s="40"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="9" t="s">
+      <c r="F57" s="40"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="I57" s="9" t="s">
+      <c r="K57" s="9" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:11">
       <c r="A58" s="40" t="s">
         <v>172</v>
       </c>
@@ -4285,14 +4565,16 @@
         <v>0</v>
       </c>
       <c r="E58" s="40"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9" t="s">
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:11">
       <c r="A59" s="40" t="s">
         <v>174</v>
       </c>
@@ -4306,16 +4588,18 @@
         <v>0</v>
       </c>
       <c r="E59" s="40"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="9" t="s">
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="I59" s="9" t="s">
+      <c r="K59" s="9" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:11">
       <c r="A60" s="40" t="s">
         <v>176</v>
       </c>
@@ -4329,16 +4613,18 @@
         <v>0</v>
       </c>
       <c r="E60" s="40"/>
-      <c r="F60" s="41"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="9" t="s">
+      <c r="F60" s="40"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="I60" s="9" t="s">
+      <c r="K60" s="9" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:11">
       <c r="A61" s="40" t="s">
         <v>179</v>
       </c>
@@ -4352,16 +4638,22 @@
         <v>1</v>
       </c>
       <c r="E61" s="40"/>
-      <c r="F61" s="41"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="9" t="s">
+      <c r="F61" s="40">
+        <v>1</v>
+      </c>
+      <c r="G61" s="40">
+        <v>1</v>
+      </c>
+      <c r="H61" s="41"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="I61" s="9" t="s">
+      <c r="K61" s="9" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:11">
       <c r="A62" s="40" t="s">
         <v>182</v>
       </c>
@@ -4375,14 +4667,20 @@
         <v>1</v>
       </c>
       <c r="E62" s="40"/>
-      <c r="F62" s="41"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9" t="s">
+      <c r="F62" s="40">
+        <v>1</v>
+      </c>
+      <c r="G62" s="40">
+        <v>1</v>
+      </c>
+      <c r="H62" s="41"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:11">
       <c r="A63" s="40" t="s">
         <v>184</v>
       </c>
@@ -4396,16 +4694,22 @@
         <v>1</v>
       </c>
       <c r="E63" s="40"/>
-      <c r="F63" s="41"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="9" t="s">
+      <c r="F63" s="40">
+        <v>1</v>
+      </c>
+      <c r="G63" s="40">
+        <v>1</v>
+      </c>
+      <c r="H63" s="41"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="I63" s="9" t="s">
+      <c r="K63" s="9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:11">
       <c r="A64" s="40" t="s">
         <v>187</v>
       </c>
@@ -4419,14 +4723,20 @@
         <v>1</v>
       </c>
       <c r="E64" s="40"/>
-      <c r="F64" s="41"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9" t="s">
+      <c r="F64" s="40">
+        <v>1</v>
+      </c>
+      <c r="G64" s="40">
+        <v>1</v>
+      </c>
+      <c r="H64" s="41"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:11">
       <c r="A65" s="40" t="s">
         <v>189</v>
       </c>
@@ -4440,16 +4750,22 @@
         <v>1</v>
       </c>
       <c r="E65" s="40"/>
-      <c r="F65" s="41"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="9" t="s">
+      <c r="F65" s="40">
+        <v>1</v>
+      </c>
+      <c r="G65" s="40">
+        <v>1</v>
+      </c>
+      <c r="H65" s="41"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="I65" s="9" t="s">
+      <c r="K65" s="9" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:11">
       <c r="A66" s="40" t="s">
         <v>191</v>
       </c>
@@ -4463,14 +4779,20 @@
         <v>1</v>
       </c>
       <c r="E66" s="40"/>
-      <c r="F66" s="41"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9" t="s">
+      <c r="F66" s="40">
+        <v>1</v>
+      </c>
+      <c r="G66" s="40">
+        <v>1</v>
+      </c>
+      <c r="H66" s="41"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:11">
       <c r="A67" s="40" t="s">
         <v>193</v>
       </c>
@@ -4484,16 +4806,22 @@
         <v>1</v>
       </c>
       <c r="E67" s="40"/>
-      <c r="F67" s="41"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="9" t="s">
+      <c r="F67" s="40">
+        <v>1</v>
+      </c>
+      <c r="G67" s="40">
+        <v>1</v>
+      </c>
+      <c r="H67" s="41"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="I67" s="9" t="s">
+      <c r="K67" s="9" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:11">
       <c r="A68" s="40" t="s">
         <v>195</v>
       </c>
@@ -4507,16 +4835,22 @@
         <v>1</v>
       </c>
       <c r="E68" s="40"/>
-      <c r="F68" s="41"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="9" t="s">
+      <c r="F68" s="40">
+        <v>1</v>
+      </c>
+      <c r="G68" s="40">
+        <v>1</v>
+      </c>
+      <c r="H68" s="41"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="I68" s="9" t="s">
+      <c r="K68" s="9" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:11">
       <c r="A69" s="40" t="s">
         <v>198</v>
       </c>
@@ -4530,16 +4864,22 @@
         <v>1</v>
       </c>
       <c r="E69" s="40"/>
-      <c r="F69" s="41"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="9" t="s">
+      <c r="F69" s="40">
+        <v>0</v>
+      </c>
+      <c r="G69" s="40">
+        <v>1</v>
+      </c>
+      <c r="H69" s="41"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="I69" s="9" t="s">
+      <c r="K69" s="9" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:11">
       <c r="A70" s="40" t="s">
         <v>201</v>
       </c>
@@ -4553,16 +4893,22 @@
         <v>1</v>
       </c>
       <c r="E70" s="40"/>
-      <c r="F70" s="41"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="9" t="s">
+      <c r="F70" s="40">
+        <v>0</v>
+      </c>
+      <c r="G70" s="40">
+        <v>1</v>
+      </c>
+      <c r="H70" s="41"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="I70" s="9" t="s">
+      <c r="K70" s="9" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:11">
       <c r="A71" s="40" t="s">
         <v>204</v>
       </c>
@@ -4576,16 +4922,20 @@
         <v>0</v>
       </c>
       <c r="E71" s="40"/>
-      <c r="F71" s="41"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="42" t="s">
+      <c r="F71" s="40"/>
+      <c r="G71" s="40">
+        <v>1</v>
+      </c>
+      <c r="H71" s="41"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="I71" s="9" t="s">
+      <c r="K71" s="9" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:11">
       <c r="A72" s="40" t="s">
         <v>207</v>
       </c>
@@ -4599,16 +4949,20 @@
         <v>0</v>
       </c>
       <c r="E72" s="40"/>
-      <c r="F72" s="41"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="9" t="s">
+      <c r="F72" s="40"/>
+      <c r="G72" s="40">
+        <v>0</v>
+      </c>
+      <c r="H72" s="41"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="I72" s="9" t="s">
+      <c r="K72" s="9" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:11">
       <c r="A73" s="40" t="s">
         <v>210</v>
       </c>
@@ -4622,16 +4976,20 @@
         <v>0</v>
       </c>
       <c r="E73" s="40"/>
-      <c r="F73" s="41"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="9" t="s">
+      <c r="F73" s="40"/>
+      <c r="G73" s="40">
+        <v>0</v>
+      </c>
+      <c r="H73" s="41"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="I73" s="9" t="s">
+      <c r="K73" s="9" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:11">
       <c r="A74" s="40" t="s">
         <v>212</v>
       </c>
@@ -4645,16 +5003,20 @@
         <v>0</v>
       </c>
       <c r="E74" s="40"/>
-      <c r="F74" s="41"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="9" t="s">
+      <c r="F74" s="40"/>
+      <c r="G74" s="40">
+        <v>0</v>
+      </c>
+      <c r="H74" s="41"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="I74" s="9" t="s">
+      <c r="K74" s="9" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:11">
       <c r="A75" s="40" t="s">
         <v>214</v>
       </c>
@@ -4668,16 +5030,20 @@
         <v>0</v>
       </c>
       <c r="E75" s="40"/>
-      <c r="F75" s="41"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="9" t="s">
+      <c r="F75" s="40"/>
+      <c r="G75" s="40">
+        <v>0</v>
+      </c>
+      <c r="H75" s="41"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="I75" s="9" t="s">
+      <c r="K75" s="9" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:11">
       <c r="A76" s="40" t="s">
         <v>216</v>
       </c>
@@ -4691,16 +5057,20 @@
         <v>0</v>
       </c>
       <c r="E76" s="40"/>
-      <c r="F76" s="41"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="9" t="s">
+      <c r="F76" s="40"/>
+      <c r="G76" s="40">
+        <v>0</v>
+      </c>
+      <c r="H76" s="41"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="I76" s="9" t="s">
+      <c r="K76" s="9" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:11">
       <c r="A77" s="40" t="s">
         <v>218</v>
       </c>
@@ -4714,16 +5084,20 @@
         <v>0</v>
       </c>
       <c r="E77" s="40"/>
-      <c r="F77" s="41"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="9" t="s">
+      <c r="F77" s="40"/>
+      <c r="G77" s="40">
+        <v>0</v>
+      </c>
+      <c r="H77" s="41"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="I77" s="9" t="s">
+      <c r="K77" s="9" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:11">
       <c r="A78" s="40" t="s">
         <v>220</v>
       </c>
@@ -4737,16 +5111,20 @@
         <v>0</v>
       </c>
       <c r="E78" s="40"/>
-      <c r="F78" s="41"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="9" t="s">
+      <c r="F78" s="40"/>
+      <c r="G78" s="40">
+        <v>1</v>
+      </c>
+      <c r="H78" s="41"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="I78" s="9" t="s">
+      <c r="K78" s="9" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:11">
       <c r="A79" s="40" t="s">
         <v>222</v>
       </c>
@@ -4760,16 +5138,20 @@
         <v>0</v>
       </c>
       <c r="E79" s="40"/>
-      <c r="F79" s="41"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="9" t="s">
+      <c r="F79" s="40"/>
+      <c r="G79" s="40">
+        <v>1</v>
+      </c>
+      <c r="H79" s="41"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="I79" s="9" t="s">
+      <c r="K79" s="9" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:11">
       <c r="A80" s="40" t="s">
         <v>225</v>
       </c>
@@ -4783,16 +5165,20 @@
         <v>0</v>
       </c>
       <c r="E80" s="40"/>
-      <c r="F80" s="41"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="9" t="s">
+      <c r="F80" s="40"/>
+      <c r="G80" s="40">
+        <v>1</v>
+      </c>
+      <c r="H80" s="41"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="I80" s="9" t="s">
+      <c r="K80" s="9" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:11">
       <c r="A81" s="40" t="s">
         <v>227</v>
       </c>
@@ -4806,16 +5192,20 @@
         <v>0</v>
       </c>
       <c r="E81" s="40"/>
-      <c r="F81" s="41"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="9" t="s">
+      <c r="F81" s="40"/>
+      <c r="G81" s="40">
+        <v>1</v>
+      </c>
+      <c r="H81" s="41"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="I81" s="9" t="s">
+      <c r="K81" s="9" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:11">
       <c r="A82" s="40" t="s">
         <v>229</v>
       </c>
@@ -4829,16 +5219,20 @@
         <v>0</v>
       </c>
       <c r="E82" s="40"/>
-      <c r="F82" s="41"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="9" t="s">
+      <c r="F82" s="40"/>
+      <c r="G82" s="40">
+        <v>1</v>
+      </c>
+      <c r="H82" s="41"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="I82" s="9" t="s">
+      <c r="K82" s="9" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:11">
       <c r="A83" s="40" t="s">
         <v>231</v>
       </c>
@@ -4852,16 +5246,20 @@
         <v>0</v>
       </c>
       <c r="E83" s="40"/>
-      <c r="F83" s="41"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="9" t="s">
+      <c r="F83" s="40"/>
+      <c r="G83" s="40">
+        <v>1</v>
+      </c>
+      <c r="H83" s="41"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="I83" s="9" t="s">
+      <c r="K83" s="9" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:11">
       <c r="A84" s="40" t="s">
         <v>233</v>
       </c>
@@ -4875,16 +5273,20 @@
         <v>0</v>
       </c>
       <c r="E84" s="40"/>
-      <c r="F84" s="41"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="9" t="s">
+      <c r="F84" s="40"/>
+      <c r="G84" s="40">
+        <v>1</v>
+      </c>
+      <c r="H84" s="41"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="I84" s="9" t="s">
+      <c r="K84" s="9" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:11">
       <c r="A85" s="40" t="s">
         <v>236</v>
       </c>
@@ -4898,16 +5300,20 @@
         <v>0</v>
       </c>
       <c r="E85" s="40"/>
-      <c r="F85" s="41"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="9" t="s">
+      <c r="F85" s="40"/>
+      <c r="G85" s="40">
+        <v>1</v>
+      </c>
+      <c r="H85" s="41"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="I85" s="9" t="s">
+      <c r="K85" s="9" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:11">
       <c r="A86" s="40" t="s">
         <v>238</v>
       </c>
@@ -4921,16 +5327,20 @@
         <v>0</v>
       </c>
       <c r="E86" s="40"/>
-      <c r="F86" s="41"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="9" t="s">
+      <c r="F86" s="40"/>
+      <c r="G86" s="40">
+        <v>1</v>
+      </c>
+      <c r="H86" s="41"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="I86" s="9" t="s">
+      <c r="K86" s="9" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:11">
       <c r="A87" s="40" t="s">
         <v>240</v>
       </c>
@@ -4944,16 +5354,20 @@
         <v>0</v>
       </c>
       <c r="E87" s="40"/>
-      <c r="F87" s="41"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="9" t="s">
+      <c r="F87" s="40"/>
+      <c r="G87" s="40">
+        <v>1</v>
+      </c>
+      <c r="H87" s="41"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="I87" s="9" t="s">
+      <c r="K87" s="9" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:11">
       <c r="A88" s="40" t="s">
         <v>242</v>
       </c>
@@ -4967,16 +5381,20 @@
         <v>0</v>
       </c>
       <c r="E88" s="40"/>
-      <c r="F88" s="41"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="9" t="s">
+      <c r="F88" s="40"/>
+      <c r="G88" s="40">
+        <v>1</v>
+      </c>
+      <c r="H88" s="41"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="I88" s="9" t="s">
+      <c r="K88" s="9" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:11">
       <c r="A89" s="40" t="s">
         <v>244</v>
       </c>
@@ -4990,16 +5408,20 @@
         <v>0</v>
       </c>
       <c r="E89" s="40"/>
-      <c r="F89" s="41"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="9" t="s">
+      <c r="F89" s="40"/>
+      <c r="G89" s="40">
+        <v>1</v>
+      </c>
+      <c r="H89" s="41"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="I89" s="9" t="s">
+      <c r="K89" s="9" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:11">
       <c r="A90" s="40" t="s">
         <v>246</v>
       </c>
@@ -5013,16 +5435,20 @@
         <v>0</v>
       </c>
       <c r="E90" s="40"/>
-      <c r="F90" s="41"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="9" t="s">
+      <c r="F90" s="40"/>
+      <c r="G90" s="40">
+        <v>1</v>
+      </c>
+      <c r="H90" s="41"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="I90" s="9" t="s">
+      <c r="K90" s="9" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:11">
       <c r="A91" s="40" t="s">
         <v>248</v>
       </c>
@@ -5036,16 +5462,20 @@
         <v>0</v>
       </c>
       <c r="E91" s="40"/>
-      <c r="F91" s="41"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="9" t="s">
+      <c r="F91" s="40"/>
+      <c r="G91" s="40">
+        <v>1</v>
+      </c>
+      <c r="H91" s="41"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="I91" s="9" t="s">
+      <c r="K91" s="9" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:11">
       <c r="A92" s="40" t="s">
         <v>250</v>
       </c>
@@ -5059,16 +5489,20 @@
         <v>0</v>
       </c>
       <c r="E92" s="40"/>
-      <c r="F92" s="41"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="9" t="s">
+      <c r="F92" s="40"/>
+      <c r="G92" s="40">
+        <v>1</v>
+      </c>
+      <c r="H92" s="41"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="I92" s="9" t="s">
+      <c r="K92" s="9" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:11">
       <c r="A93" s="40" t="s">
         <v>253</v>
       </c>
@@ -5082,16 +5516,20 @@
         <v>0</v>
       </c>
       <c r="E93" s="40"/>
-      <c r="F93" s="41"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="9" t="s">
+      <c r="F93" s="40"/>
+      <c r="G93" s="40">
+        <v>1</v>
+      </c>
+      <c r="H93" s="41"/>
+      <c r="I93" s="8"/>
+      <c r="J93" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="I93" s="9" t="s">
+      <c r="K93" s="9" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:11">
       <c r="A94" s="40" t="s">
         <v>255</v>
       </c>
@@ -5105,16 +5543,20 @@
         <v>0</v>
       </c>
       <c r="E94" s="40"/>
-      <c r="F94" s="41"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="9" t="s">
+      <c r="F94" s="40"/>
+      <c r="G94" s="40">
+        <v>1</v>
+      </c>
+      <c r="H94" s="41"/>
+      <c r="I94" s="8"/>
+      <c r="J94" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="I94" s="9" t="s">
+      <c r="K94" s="9" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:11">
       <c r="A95" s="40" t="s">
         <v>257</v>
       </c>
@@ -5128,16 +5570,20 @@
         <v>0</v>
       </c>
       <c r="E95" s="40"/>
-      <c r="F95" s="41"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="9" t="s">
+      <c r="F95" s="40"/>
+      <c r="G95" s="40">
+        <v>1</v>
+      </c>
+      <c r="H95" s="41"/>
+      <c r="I95" s="8"/>
+      <c r="J95" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="I95" s="9" t="s">
+      <c r="K95" s="9" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:11">
       <c r="A96" s="40" t="s">
         <v>259</v>
       </c>
@@ -5151,16 +5597,20 @@
         <v>0</v>
       </c>
       <c r="E96" s="40"/>
-      <c r="F96" s="41"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="9" t="s">
+      <c r="F96" s="40"/>
+      <c r="G96" s="40">
+        <v>0</v>
+      </c>
+      <c r="H96" s="41"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="I96" s="9" t="s">
+      <c r="K96" s="9" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:11">
       <c r="A97" s="40" t="s">
         <v>261</v>
       </c>
@@ -5174,16 +5624,20 @@
         <v>0</v>
       </c>
       <c r="E97" s="40"/>
-      <c r="F97" s="41"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="9" t="s">
+      <c r="F97" s="40"/>
+      <c r="G97" s="40">
+        <v>1</v>
+      </c>
+      <c r="H97" s="41"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="I97" s="9" t="s">
+      <c r="K97" s="9" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:11">
       <c r="A98" s="40" t="s">
         <v>263</v>
       </c>
@@ -5197,16 +5651,20 @@
         <v>0</v>
       </c>
       <c r="E98" s="40"/>
-      <c r="F98" s="41"/>
-      <c r="G98" s="8"/>
-      <c r="H98" s="9" t="s">
+      <c r="F98" s="40"/>
+      <c r="G98" s="40">
+        <v>1</v>
+      </c>
+      <c r="H98" s="41"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="I98" s="9" t="s">
+      <c r="K98" s="9" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:11">
       <c r="A99" s="40" t="s">
         <v>265</v>
       </c>
@@ -5220,16 +5678,20 @@
         <v>0</v>
       </c>
       <c r="E99" s="40"/>
-      <c r="F99" s="41"/>
-      <c r="G99" s="8"/>
-      <c r="H99" s="9" t="s">
+      <c r="F99" s="40"/>
+      <c r="G99" s="40">
+        <v>1</v>
+      </c>
+      <c r="H99" s="41"/>
+      <c r="I99" s="8"/>
+      <c r="J99" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="I99" s="9" t="s">
+      <c r="K99" s="9" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:11">
       <c r="A100" s="40" t="s">
         <v>267</v>
       </c>
@@ -5245,16 +5707,22 @@
       <c r="E100" s="40">
         <v>1</v>
       </c>
-      <c r="F100" s="41"/>
-      <c r="G100" s="8"/>
-      <c r="H100" s="9" t="s">
+      <c r="F100" s="40">
+        <v>1</v>
+      </c>
+      <c r="G100" s="40">
+        <v>1</v>
+      </c>
+      <c r="H100" s="41"/>
+      <c r="I100" s="8"/>
+      <c r="J100" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="I100" s="9" t="s">
+      <c r="K100" s="9" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:11">
       <c r="A101" s="40" t="s">
         <v>269</v>
       </c>
@@ -5270,16 +5738,22 @@
       <c r="E101" s="40">
         <v>1</v>
       </c>
-      <c r="F101" s="41"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="9" t="s">
+      <c r="F101" s="40">
+        <v>1</v>
+      </c>
+      <c r="G101" s="40">
+        <v>1</v>
+      </c>
+      <c r="H101" s="41"/>
+      <c r="I101" s="8"/>
+      <c r="J101" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="I101" s="9" t="s">
+      <c r="K101" s="9" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:11">
       <c r="A102" s="40" t="s">
         <v>271</v>
       </c>
@@ -5293,16 +5767,18 @@
         <v>0</v>
       </c>
       <c r="E102" s="40"/>
-      <c r="F102" s="41"/>
-      <c r="G102" s="8"/>
-      <c r="H102" s="9" t="s">
+      <c r="F102" s="40"/>
+      <c r="G102" s="40"/>
+      <c r="H102" s="41"/>
+      <c r="I102" s="8"/>
+      <c r="J102" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="I102" s="9" t="s">
+      <c r="K102" s="9" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:11">
       <c r="A103" s="43" t="s">
         <v>273</v>
       </c>
@@ -5316,16 +5792,18 @@
         <v>0</v>
       </c>
       <c r="E103" s="43"/>
-      <c r="F103" s="44"/>
-      <c r="G103" s="14"/>
-      <c r="H103" s="45" t="s">
+      <c r="F103" s="43"/>
+      <c r="G103" s="43"/>
+      <c r="H103" s="44"/>
+      <c r="I103" s="14"/>
+      <c r="J103" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="I103" s="45" t="s">
+      <c r="K103" s="45" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:11">
       <c r="A104" s="46" t="s">
         <v>274</v>
       </c>
@@ -5341,16 +5819,22 @@
       <c r="E104" s="46">
         <v>1</v>
       </c>
-      <c r="F104" s="47"/>
-      <c r="G104" s="48"/>
-      <c r="H104" s="49" t="s">
+      <c r="F104" s="46">
+        <v>1</v>
+      </c>
+      <c r="G104" s="46">
+        <v>1</v>
+      </c>
+      <c r="H104" s="47"/>
+      <c r="I104" s="48"/>
+      <c r="J104" s="49" t="s">
         <v>319</v>
       </c>
-      <c r="I104" s="49" t="s">
+      <c r="K104" s="49" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:11">
       <c r="A105" s="40" t="s">
         <v>276</v>
       </c>
@@ -5366,14 +5850,20 @@
       <c r="E105" s="40">
         <v>1</v>
       </c>
-      <c r="F105" s="41"/>
-      <c r="G105" s="8"/>
-      <c r="H105" s="9"/>
-      <c r="I105" s="9" t="s">
+      <c r="F105" s="40">
+        <v>1</v>
+      </c>
+      <c r="G105" s="40">
+        <v>1</v>
+      </c>
+      <c r="H105" s="41"/>
+      <c r="I105" s="8"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:11">
       <c r="A106" s="40" t="s">
         <v>278</v>
       </c>
@@ -5389,14 +5879,20 @@
       <c r="E106" s="40">
         <v>1</v>
       </c>
-      <c r="F106" s="41"/>
-      <c r="G106" s="8"/>
-      <c r="H106" s="9"/>
-      <c r="I106" s="9" t="s">
+      <c r="F106" s="40">
+        <v>1</v>
+      </c>
+      <c r="G106" s="40">
+        <v>1</v>
+      </c>
+      <c r="H106" s="41"/>
+      <c r="I106" s="8"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:11">
       <c r="A107" s="40" t="s">
         <v>280</v>
       </c>
@@ -5410,14 +5906,16 @@
         <v>0</v>
       </c>
       <c r="E107" s="40"/>
-      <c r="F107" s="41"/>
-      <c r="G107" s="8"/>
-      <c r="H107" s="9"/>
-      <c r="I107" s="9" t="s">
+      <c r="F107" s="40"/>
+      <c r="G107" s="40"/>
+      <c r="H107" s="41"/>
+      <c r="I107" s="8"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:11">
       <c r="A108" s="40" t="s">
         <v>282</v>
       </c>
@@ -5431,14 +5929,16 @@
         <v>0</v>
       </c>
       <c r="E108" s="40"/>
-      <c r="F108" s="41"/>
-      <c r="G108" s="8"/>
-      <c r="H108" s="9"/>
-      <c r="I108" s="9" t="s">
+      <c r="F108" s="40"/>
+      <c r="G108" s="40"/>
+      <c r="H108" s="41"/>
+      <c r="I108" s="8"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:11">
       <c r="A109" s="40" t="s">
         <v>284</v>
       </c>
@@ -5454,14 +5954,20 @@
       <c r="E109" s="40">
         <v>1</v>
       </c>
-      <c r="F109" s="41"/>
-      <c r="G109" s="8"/>
-      <c r="H109" s="9"/>
-      <c r="I109" s="9" t="s">
+      <c r="F109" s="40">
+        <v>1</v>
+      </c>
+      <c r="G109" s="40">
+        <v>1</v>
+      </c>
+      <c r="H109" s="41"/>
+      <c r="I109" s="8"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:11">
       <c r="A110" s="40" t="s">
         <v>286</v>
       </c>
@@ -5477,14 +5983,20 @@
       <c r="E110" s="40">
         <v>1</v>
       </c>
-      <c r="F110" s="41"/>
-      <c r="G110" s="8"/>
-      <c r="H110" s="9"/>
-      <c r="I110" s="9" t="s">
+      <c r="F110" s="40">
+        <v>1</v>
+      </c>
+      <c r="G110" s="40">
+        <v>1</v>
+      </c>
+      <c r="H110" s="41"/>
+      <c r="I110" s="8"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:11">
       <c r="A111" s="40" t="s">
         <v>288</v>
       </c>
@@ -5500,14 +6012,20 @@
       <c r="E111" s="40">
         <v>1</v>
       </c>
-      <c r="F111" s="41"/>
-      <c r="G111" s="8"/>
-      <c r="H111" s="9"/>
-      <c r="I111" s="9" t="s">
+      <c r="F111" s="40">
+        <v>1</v>
+      </c>
+      <c r="G111" s="40">
+        <v>1</v>
+      </c>
+      <c r="H111" s="41"/>
+      <c r="I111" s="8"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:11">
       <c r="A112" s="40" t="s">
         <v>290</v>
       </c>
@@ -5521,14 +6039,16 @@
         <v>0</v>
       </c>
       <c r="E112" s="40"/>
-      <c r="F112" s="41"/>
-      <c r="G112" s="8"/>
-      <c r="H112" s="9"/>
-      <c r="I112" s="9" t="s">
+      <c r="F112" s="40"/>
+      <c r="G112" s="40"/>
+      <c r="H112" s="41"/>
+      <c r="I112" s="8"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="19.5" thickBot="1">
+    <row r="113" spans="1:11" ht="19.5" thickBot="1">
       <c r="A113" s="50" t="s">
         <v>291</v>
       </c>
@@ -5536,14 +6056,16 @@
       <c r="C113" s="50"/>
       <c r="D113" s="50"/>
       <c r="E113" s="50"/>
-      <c r="F113" s="51"/>
-      <c r="G113" s="52"/>
-      <c r="H113" s="53"/>
-      <c r="I113" s="53" t="s">
+      <c r="F113" s="50"/>
+      <c r="G113" s="50"/>
+      <c r="H113" s="51"/>
+      <c r="I113" s="52"/>
+      <c r="J113" s="53"/>
+      <c r="K113" s="53" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="19.5" thickTop="1">
+    <row r="114" spans="1:11" ht="19.5" thickTop="1">
       <c r="A114" s="37" t="s">
         <v>292</v>
       </c>
@@ -5557,14 +6079,16 @@
         <v>0</v>
       </c>
       <c r="E114" s="37"/>
-      <c r="F114" s="38"/>
-      <c r="G114" s="12"/>
-      <c r="H114" s="32"/>
-      <c r="I114" s="32" t="s">
+      <c r="F114" s="37"/>
+      <c r="G114" s="37"/>
+      <c r="H114" s="38"/>
+      <c r="I114" s="12"/>
+      <c r="J114" s="32"/>
+      <c r="K114" s="32" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:11">
       <c r="A115" s="43" t="s">
         <v>294</v>
       </c>
@@ -5578,14 +6102,16 @@
         <v>0</v>
       </c>
       <c r="E115" s="43"/>
-      <c r="F115" s="44"/>
-      <c r="G115" s="14"/>
-      <c r="H115" s="45"/>
-      <c r="I115" s="45" t="s">
+      <c r="F115" s="43"/>
+      <c r="G115" s="43"/>
+      <c r="H115" s="44"/>
+      <c r="I115" s="14"/>
+      <c r="J115" s="45"/>
+      <c r="K115" s="45" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:11">
       <c r="A116" s="54" t="s">
         <v>296</v>
       </c>
@@ -5599,14 +6125,16 @@
         <v>0</v>
       </c>
       <c r="E116" s="54"/>
-      <c r="F116" s="55"/>
-      <c r="G116" s="28"/>
-      <c r="H116" s="29"/>
-      <c r="I116" s="29" t="s">
+      <c r="F116" s="54"/>
+      <c r="G116" s="54"/>
+      <c r="H116" s="55"/>
+      <c r="I116" s="28"/>
+      <c r="J116" s="29"/>
+      <c r="K116" s="29" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:11">
       <c r="A117" s="56" t="s">
         <v>298</v>
       </c>
@@ -5620,14 +6148,16 @@
         <v>0</v>
       </c>
       <c r="E117" s="56"/>
-      <c r="F117" s="57"/>
-      <c r="G117" s="24"/>
-      <c r="H117" s="25"/>
-      <c r="I117" s="25" t="s">
+      <c r="F117" s="56"/>
+      <c r="G117" s="56"/>
+      <c r="H117" s="57"/>
+      <c r="I117" s="24"/>
+      <c r="J117" s="25"/>
+      <c r="K117" s="25" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:11">
       <c r="A118" s="54" t="s">
         <v>300</v>
       </c>
@@ -5641,14 +6171,16 @@
         <v>0</v>
       </c>
       <c r="E118" s="54"/>
-      <c r="F118" s="55"/>
-      <c r="G118" s="28"/>
-      <c r="H118" s="29"/>
-      <c r="I118" s="29" t="s">
+      <c r="F118" s="54"/>
+      <c r="G118" s="54"/>
+      <c r="H118" s="55"/>
+      <c r="I118" s="28"/>
+      <c r="J118" s="29"/>
+      <c r="K118" s="29" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="19.5" thickBot="1">
+    <row r="119" spans="1:11" ht="19.5" thickBot="1">
       <c r="A119" s="58" t="s">
         <v>302</v>
       </c>
@@ -5662,14 +6194,16 @@
         <v>0</v>
       </c>
       <c r="E119" s="58"/>
-      <c r="F119" s="59"/>
-      <c r="G119" s="18"/>
-      <c r="H119" s="19"/>
-      <c r="I119" s="19" t="s">
+      <c r="F119" s="58"/>
+      <c r="G119" s="58"/>
+      <c r="H119" s="59"/>
+      <c r="I119" s="18"/>
+      <c r="J119" s="19"/>
+      <c r="K119" s="19" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="19.5" thickTop="1">
+    <row r="120" spans="1:11" ht="19.5" thickTop="1">
       <c r="A120" s="60" t="s">
         <v>304</v>
       </c>
@@ -5683,16 +6217,18 @@
         <v>0</v>
       </c>
       <c r="E120" s="60"/>
-      <c r="F120" s="61"/>
-      <c r="G120" s="21"/>
-      <c r="H120" s="5" t="s">
+      <c r="F120" s="60"/>
+      <c r="G120" s="60"/>
+      <c r="H120" s="61"/>
+      <c r="I120" s="21"/>
+      <c r="J120" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="I120" s="5" t="s">
+      <c r="K120" s="5" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:11">
       <c r="A121" s="40" t="s">
         <v>306</v>
       </c>
@@ -5706,16 +6242,18 @@
         <v>0</v>
       </c>
       <c r="E121" s="40"/>
-      <c r="F121" s="41"/>
-      <c r="G121" s="8"/>
-      <c r="H121" s="9" t="s">
+      <c r="F121" s="40"/>
+      <c r="G121" s="40"/>
+      <c r="H121" s="41"/>
+      <c r="I121" s="8"/>
+      <c r="J121" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="I121" s="9" t="s">
+      <c r="K121" s="9" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="19.5" thickBot="1">
+    <row r="122" spans="1:11" ht="19.5" thickBot="1">
       <c r="A122" s="50" t="s">
         <v>309</v>
       </c>
@@ -5729,17 +6267,29 @@
         <v>0</v>
       </c>
       <c r="E122" s="50"/>
-      <c r="F122" s="51"/>
-      <c r="G122" s="52"/>
-      <c r="H122" s="53"/>
-      <c r="I122" s="53" t="s">
+      <c r="F122" s="50"/>
+      <c r="G122" s="50"/>
+      <c r="H122" s="51"/>
+      <c r="I122" s="52"/>
+      <c r="J122" s="53"/>
+      <c r="K122" s="53" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="19.5" thickTop="1"/>
+    <row r="123" spans="1:11" ht="19.5" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B3:E122">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F122">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G122">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -5753,7 +6303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC56740-1673-4AB9-BF3D-516D215D4990}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G2:G13"/>
     </sheetView>
   </sheetViews>
